--- a/PCBv2/driverPCB/Bill of Materials-DriverPCB.xlsx
+++ b/PCBv2/driverPCB/Bill of Materials-DriverPCB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\LED_Driver_ETH\PCB\driverPCB\Project Outputs for DriverPCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\LED_Driver_ETH\PCBv2\driverPCB\Project Outputs for DriverPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1430F9-B63A-4421-A704-85C10D41404E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B9AAC-91D0-452C-9F2E-2326BF545EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1176" windowWidth="17280" windowHeight="8964" xr2:uid="{A4E9BC57-66AC-46E3-B720-59E7E186210F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC5BC1D-7756-4155-A970-591F97FF4671}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DriverPCB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Designator</t>
   </si>
@@ -125,46 +125,55 @@
     <t>DIP4</t>
   </si>
   <si>
+    <t>R30, R31, R32, R33, R41, R42, R43, R44</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
     <t>R20, R21, R29, R40</t>
   </si>
   <si>
-    <t>0402</t>
-  </si>
-  <si>
     <t>3K</t>
   </si>
   <si>
-    <t>R15_ch1, R15_ch2, R15_ch3, R15_ch4, R15_ch5, R15_ch6, R17_ch1, R17_ch2, R17_ch3, R17_ch4, R17_ch5, R17_ch6, R22, R23, R24, R25, R26, R27, R28, R34, R35, R36, R37, R38, R39</t>
+    <t>R11_ch1, R11_ch2, R11_ch3, R11_ch4, R11_ch5, R11_ch6</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>R10_ch1, R10_ch2, R10_ch3, R10_ch4, R10_ch5, R10_ch6</t>
+  </si>
+  <si>
+    <t>R7_ch1, R7_ch2, R7_ch3, R7_ch4, R7_ch5, R7_ch6, R8_ch1, R8_ch2, R8_ch3, R8_ch4, R8_ch5, R8_ch6, R9_ch1, R9_ch2, R9_ch3, R9_ch4, R9_ch5, R9_ch6</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>R5_ch1, R5_ch2, R5_ch3, R5_ch4, R5_ch5, R5_ch6, R6_ch1, R6_ch2, R6_ch3, R6_ch4, R6_ch5, R6_ch6</t>
+  </si>
+  <si>
+    <t>R3_ch1, R3_ch2, R3_ch3, R3_ch4, R3_ch5, R3_ch6, R15_ch1, R15_ch2, R15_ch3, R15_ch4, R15_ch5, R15_ch6, R17_ch1, R17_ch2, R17_ch3, R17_ch4, R17_ch5, R17_ch6, R22, R23, R24, R34, R35</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R10_ch1, R10_ch2, R10_ch3, R10_ch4, R10_ch5, R10_ch6</t>
-  </si>
-  <si>
-    <t>R5_ch1, R5_ch2, R5_ch3, R5_ch4, R5_ch5, R5_ch6, R6_ch1, R6_ch2, R6_ch3, R6_ch4, R6_ch5, R6_ch6, R7_ch1, R7_ch2, R7_ch3, R7_ch4, R7_ch5, R7_ch6, R8_ch1, R8_ch2, R8_ch3, R8_ch4, R8_ch5, R8_ch6, R9_ch1, R9_ch2, R9_ch3, R9_ch4, R9_ch5, R9_ch6</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>R3_ch1, R3_ch2, R3_ch3, R3_ch4, R3_ch5, R3_ch6, R11_ch1, R11_ch2, R11_ch3, R11_ch4, R11_ch5, R11_ch6</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>R2_ch1, R2_ch2, R2_ch3, R2_ch4, R2_ch5, R2_ch6, R13_ch1, R13_ch2, R13_ch3, R13_ch4, R13_ch5, R13_ch6, R18, R30, R31, R32, R33, R41, R42, R43, R44</t>
+    <t>R2_ch1, R2_ch2, R2_ch3, R2_ch4, R2_ch5, R2_ch6, R13_ch1, R13_ch2, R13_ch3, R13_ch4, R13_ch5, R13_ch6, R18</t>
   </si>
   <si>
     <t>100K</t>
   </si>
   <si>
-    <t>R1_ch1, R1_ch2, R1_ch3, R1_ch4, R1_ch5, R1_ch6, R4_ch1, R4_ch2, R4_ch3, R4_ch4, R4_ch5, R4_ch6, R12_ch1, R12_ch2, R12_ch3, R12_ch4, R12_ch5, R12_ch6, R14_ch1, R14_ch2, R14_ch3, R14_ch4, R14_ch5, R14_ch6, R16_ch1, R16_ch2, R16_ch3, R16_ch4, R16_ch5, R16_ch6, R19</t>
+    <t>R1_ch1, R1_ch2, R1_ch3, R1_ch4, R1_ch5, R1_ch6, R4_ch1, R4_ch2, R4_ch3, R4_ch4, R4_ch5, R4_ch6, R12_ch1, R12_ch2, R12_ch3, R12_ch4, R12_ch5, R12_ch6, R14_ch1, R14_ch2, R14_ch3, R14_ch4, R14_ch5, R14_ch6, R16_ch1, R16_ch2, R16_ch3, R16_ch4, R16_ch5, R16_ch6, R19, R25, R26, R27, R28, R36, R37, R38, R39</t>
   </si>
   <si>
     <t>1K</t>
@@ -598,13 +607,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699EC624-F376-4769-BC35-482F3364F9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E102EB-857D-4841-978E-60E45394AF94}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -634,9 +645,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
@@ -648,9 +657,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -781,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -792,10 +799,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -806,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="4">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -817,161 +824,189 @@
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4">
         <v>18</v>
       </c>
     </row>
